--- a/results/sorties SNBC3/Run 1bis/Industrie/calibrage choc_tech_coeff.xlsx
+++ b/results/sorties SNBC3/Run 1bis/Industrie/calibrage choc_tech_coeff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Callonnecg\Github\ThreeME\results\sorties SNBC3\Run 1bis\Industrie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alma.monserand\Documents\GitHub\ThreeME\results\sorties SNBC3\Run 1bis\Industrie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3126981-7C92-4A62-B734-34FA2B7A61BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15DD50D-551F-4686-AE96-257209C33202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{F13A90F3-4D94-47C1-8CDD-6AC4594B133E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" firstSheet="5" activeTab="6" xr2:uid="{F13A90F3-4D94-47C1-8CDD-6AC4594B133E}"/>
   </bookViews>
   <sheets>
     <sheet name="résultats" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="101">
   <si>
     <t>YQ_01_0</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>ratio CI/prod</t>
+  </si>
+  <si>
+    <t>Attention ce fichier comporte des erreurs, le bon fichier est celui avec l'extension _SNBC3_run2, dans le dossier ThreeMe\data\calibrations</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1726,9 +1729,9 @@
       <selection pane="topRight" activeCell="AW21" sqref="AW21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2004</v>
       </c>
@@ -1871,7 +1874,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2017,7 +2020,7 @@
         <v>105296.21120000001</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2163,7 +2166,7 @@
         <v>106094.9518</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>34536.199310000004</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>34325.774790000003</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>23861.076120000002</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2750,7 +2753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2896,7 +2899,7 @@
         <v>225.9696533</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>268.04339019999998</v>
       </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3188,7 +3191,7 @@
         <v>1885.072813</v>
       </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3334,7 +3337,7 @@
         <v>1470.6662690000001</v>
       </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -3480,7 +3483,7 @@
         <v>17413.6986</v>
       </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>13585.543739999999</v>
       </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3772,7 +3775,7 @@
         <v>7.9278654126791002E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -3918,7 +3921,7 @@
         <v>9.4039703616424796E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>6.61354448985402E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4210,7 +4213,7 @@
         <v>5.1596504563026302E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4356,7 +4359,7 @@
         <v>6.1093804774961097E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4502,7 +4505,7 @@
         <v>4.76631975824627E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AV21">
         <f>AV14/U14-1</f>
         <v>0.14398053702846658</v>
@@ -4511,7 +4514,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AV22">
         <f t="shared" ref="AV22:AV26" si="0">AV15/U15-1</f>
         <v>0.35651620504503456</v>
@@ -4520,7 +4523,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AV23">
         <f t="shared" si="0"/>
         <v>-0.15153517855005505</v>
@@ -4529,7 +4532,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AV24">
         <f>AV17/U17-1</f>
         <v>-0.33828464912561507</v>
@@ -4538,7 +4541,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AV25">
         <f t="shared" si="0"/>
         <v>-0.15153517884450984</v>
@@ -4547,7 +4550,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AV26">
         <f t="shared" si="0"/>
         <v>-0.33828464912582135</v>
@@ -4556,7 +4559,7 @@
         <v>-0.35</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AW27">
         <v>-0.59</v>
       </c>
@@ -4574,17 +4577,17 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="35" customWidth="1"/>
-    <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="9" max="9" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L1" t="s">
         <v>28</v>
       </c>
@@ -4598,7 +4601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F2" s="23" t="s">
         <v>34</v>
       </c>
@@ -4615,7 +4618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>26</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>4.976897176774453E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>27</v>
       </c>
@@ -4721,7 +4724,7 @@
         <v>9.4728144563110073E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
       <c r="B5" s="12" t="s">
         <v>36</v>
@@ -4772,7 +4775,7 @@
         <v>9.8060569829206523E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" s="12" t="s">
         <v>36</v>
@@ -4823,7 +4826,7 @@
         <v>9.8060569829206523E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
         <v>36</v>
@@ -4874,13 +4877,13 @@
         <v>1.2478594116581254E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>28</v>
       </c>
@@ -4894,7 +4897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F10" s="23" t="s">
         <v>35</v>
       </c>
@@ -4911,7 +4914,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>26</v>
       </c>
@@ -4964,7 +4967,7 @@
         <v>5.3692232165405418E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>27</v>
       </c>
@@ -5017,7 +5020,7 @@
         <v>4.749188782335767E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="12" t="s">
         <v>36</v>
@@ -5068,7 +5071,7 @@
         <v>5.2685202638955708E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="12" t="s">
         <v>36</v>
@@ -5119,7 +5122,7 @@
         <v>5.2685202638955708E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="12" t="s">
         <v>36</v>
@@ -5170,22 +5173,22 @@
         <v>-1.3057458330207106E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F18" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>48</v>
       </c>
@@ -5212,12 +5215,12 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="53.453125" customWidth="1"/>
+    <col min="5" max="5" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J1" t="s">
         <v>28</v>
       </c>
@@ -5225,7 +5228,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5246,7 +5249,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -5281,7 +5284,7 @@
         <v>-2.9439677487193783E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>36</v>
       </c>
@@ -5316,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -5351,25 +5354,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>32</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -5386,13 +5389,13 @@
         <v>-1.4719838743596891E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K12">
         <f>'[2]Pepit0 AMS'!$BO$17/'[2]Pepit0 AMS'!$D$17-1</f>
         <v>-0.41140534239317994</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G14" s="3">
         <v>2019</v>
       </c>
@@ -5411,7 +5414,7 @@
       </c>
       <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -5444,7 +5447,7 @@
         <v>-4.5052243837045425E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -5477,7 +5480,7 @@
         <v>-2.0953282414039265E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>-1.8308482947975158E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>63</v>
       </c>
@@ -5543,7 +5546,7 @@
         <v>-2.5174626726287563E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
@@ -5576,7 +5579,7 @@
         <v>-3.2118457369857967E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>64</v>
       </c>
@@ -5594,47 +5597,47 @@
         <v>4.2348267631833192E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
@@ -5654,12 +5657,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.54296875" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>43</v>
       </c>
@@ -5667,7 +5670,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -5680,12 +5683,12 @@
         <v>-0.3136253399304344</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>80</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>81</v>
       </c>
@@ -5708,7 +5711,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>86</v>
       </c>
@@ -5717,7 +5720,7 @@
         <v>9.8104793756967679E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D10" s="6"/>
     </row>
   </sheetData>
@@ -5733,15 +5736,15 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
     <col min="6" max="7" width="12" customWidth="1"/>
-    <col min="12" max="12" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1015" x14ac:dyDescent="0.25">
       <c r="G1">
         <v>2019</v>
       </c>
@@ -5761,7 +5764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1015" ht="14.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1015" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>65</v>
       </c>
@@ -6797,7 +6800,7 @@
       <c r="ALZ2" s="29"/>
       <c r="AMA2" s="29"/>
     </row>
-    <row r="3" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1015" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>65</v>
       </c>
@@ -7833,7 +7836,7 @@
       <c r="ALZ3" s="29"/>
       <c r="AMA3" s="29"/>
     </row>
-    <row r="4" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1015" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>65</v>
       </c>
@@ -8869,14 +8872,14 @@
       <c r="ALZ4" s="29"/>
       <c r="AMA4" s="29"/>
     </row>
-    <row r="5" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1015" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="37"/>
     </row>
-    <row r="6" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1015" x14ac:dyDescent="0.25">
       <c r="C6" s="9" t="s">
         <v>67</v>
       </c>
@@ -8909,7 +8912,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="37"/>
     </row>
-    <row r="7" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1015" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>69</v>
       </c>
@@ -8936,7 +8939,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="37"/>
     </row>
-    <row r="8" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1015" x14ac:dyDescent="0.25">
       <c r="C8" s="9" t="s">
         <v>70</v>
       </c>
@@ -8969,7 +8972,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="37"/>
     </row>
-    <row r="9" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1015" x14ac:dyDescent="0.25">
       <c r="C9" s="9" t="s">
         <v>72</v>
       </c>
@@ -9008,7 +9011,7 @@
       </c>
       <c r="N9" s="37"/>
     </row>
-    <row r="10" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1015" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -9018,7 +9021,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:1015" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1015" x14ac:dyDescent="0.25">
       <c r="C11" s="40"/>
     </row>
   </sheetData>
@@ -9034,9 +9037,9 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1014" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1014" x14ac:dyDescent="0.25">
       <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
@@ -9050,7 +9053,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:1014" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1014" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>65</v>
       </c>
@@ -10086,7 +10089,7 @@
       <c r="ALY2" s="29"/>
       <c r="ALZ2" s="29"/>
     </row>
-    <row r="3" spans="1:1014" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1014" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>65</v>
       </c>
@@ -11122,7 +11125,7 @@
       <c r="ALY3" s="29"/>
       <c r="ALZ3" s="29"/>
     </row>
-    <row r="4" spans="1:1014" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1014" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
         <v>65</v>
       </c>
@@ -12158,12 +12161,12 @@
       <c r="ALY4" s="29"/>
       <c r="ALZ4" s="29"/>
     </row>
-    <row r="5" spans="1:1014" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1014" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1014" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1014" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>88</v>
       </c>
@@ -12183,18 +12186,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45ED4200-A111-4CBD-AB04-B598F9FD3995}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -12233,7 +12236,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>28</v>
       </c>
@@ -12265,7 +12268,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -12306,7 +12309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -12336,7 +12339,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -12374,7 +12377,7 @@
         <v>-9.1927108617954278E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -12435,7 +12438,7 @@
         <v>-2.2491135361720205E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -12496,9 +12499,14 @@
         <v>-5.7417045784242671E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -12514,7 +12522,7 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
